--- a/biology/Zoologie/Eurotamandua/Eurotamandua.xlsx
+++ b/biology/Zoologie/Eurotamandua/Eurotamandua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurotamandua joresi
 Eurotamandua (« tamandua européen ») est un genre fossile de pangolins qui a vécu en Europe à l'Éocène moyen, il y a environ 47 millions d'années. Il mesure environ 90 cm de long.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'unique spécimen fossile connu d'Eurotamandua a été découvert en 1981 sur le site fossilifère de Messel, près de Darmstadt, dans le Land de Hesse, en Allemagne. Le nom de genre a été choisi de manière erronée par Gerhard Storch, qui pensait à l'origine qu'il s'agissait d'un fourmilier (ou sous-ordre des Vermilingua), tel que le Tamandua d'Amérique du Sud, puisqu'il ne possède pas les écailles caractéristiques des pangolins[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'unique spécimen fossile connu d'Eurotamandua a été découvert en 1981 sur le site fossilifère de Messel, près de Darmstadt, dans le Land de Hesse, en Allemagne. Le nom de genre a été choisi de manière erronée par Gerhard Storch, qui pensait à l'origine qu'il s'agissait d'un fourmilier (ou sous-ordre des Vermilingua), tel que le Tamandua d'Amérique du Sud, puisqu'il ne possède pas les écailles caractéristiques des pangolins.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurotamandua mesure environ 90 cm de long. Il présente les caractistiques de presque tous les mammifères terrestres insectivores dont le régime est composé notamment de fourmis et de termites : de longues griffes, un long museau, contenant probablement une longue langue collante. Il a également une longue queue préhensile.
 </t>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le changement d'attribution d'Eurotamandua en faveur des pangolins a été effectué notamment en raison de l'absence des articulations caractéristiques des xénarthres[2]. De plus, on ne trouve de fourmiliers qu'en Amérique du Sud jusqu'au grand échange faunique interaméricain, qui leur a permis de se répandre en Amérique du Nord à partir d'il y a 2,8 millions d'années.
-Selon Timothy Gaudin 2009, Eurotamandua pourrait faire partie d'une famille basale de pholidotes, les Eurotamanduidae[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le changement d'attribution d'Eurotamandua en faveur des pangolins a été effectué notamment en raison de l'absence des articulations caractéristiques des xénarthres. De plus, on ne trouve de fourmiliers qu'en Amérique du Sud jusqu'au grand échange faunique interaméricain, qui leur a permis de se répandre en Amérique du Nord à partir d'il y a 2,8 millions d'années.
+Selon Timothy Gaudin 2009, Eurotamandua pourrait faire partie d'une famille basale de pholidotes, les Eurotamanduidae :
 </t>
         </is>
       </c>
